--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H2">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I2">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J2">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5351120917213</v>
+        <v>62.90731233333333</v>
       </c>
       <c r="N2">
-        <v>18.5351120917213</v>
+        <v>188.721937</v>
       </c>
       <c r="O2">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440488</v>
       </c>
       <c r="P2">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440487</v>
       </c>
       <c r="Q2">
-        <v>47.5333021945404</v>
+        <v>205.7092179314522</v>
       </c>
       <c r="R2">
-        <v>47.5333021945404</v>
+        <v>1851.38296138307</v>
       </c>
       <c r="S2">
-        <v>0.2555809213358377</v>
+        <v>0.3376132623074017</v>
       </c>
       <c r="T2">
-        <v>0.2555809213358377</v>
+        <v>0.3376132623074017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H3">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I3">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J3">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.18684891956238</v>
+        <v>2.253965666666666</v>
       </c>
       <c r="N3">
-        <v>2.18684891956238</v>
+        <v>6.761896999999999</v>
       </c>
       <c r="O3">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="P3">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="Q3">
-        <v>5.608174907870731</v>
+        <v>7.370550375407777</v>
       </c>
       <c r="R3">
-        <v>5.608174907870731</v>
+        <v>66.33495337866999</v>
       </c>
       <c r="S3">
-        <v>0.03015449051067106</v>
+        <v>0.01209666529417103</v>
       </c>
       <c r="T3">
-        <v>0.03015449051067106</v>
+        <v>0.01209666529417104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H4">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I4">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J4">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55214097370191</v>
+        <v>1.806737666666667</v>
       </c>
       <c r="N4">
-        <v>1.55214097370191</v>
+        <v>5.420213</v>
       </c>
       <c r="O4">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="P4">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="Q4">
-        <v>3.980466132948512</v>
+        <v>5.908098417047777</v>
       </c>
       <c r="R4">
-        <v>3.980466132948512</v>
+        <v>53.17288575343</v>
       </c>
       <c r="S4">
-        <v>0.02140249371780294</v>
+        <v>0.009696465723171276</v>
       </c>
       <c r="T4">
-        <v>0.02140249371780294</v>
+        <v>0.009696465723171278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H5">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I5">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J5">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5351120917213</v>
+        <v>62.90731233333333</v>
       </c>
       <c r="N5">
-        <v>18.5351120917213</v>
+        <v>188.721937</v>
       </c>
       <c r="O5">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440488</v>
       </c>
       <c r="P5">
-        <v>0.832137345165042</v>
+        <v>0.9393635410440487</v>
       </c>
       <c r="Q5">
-        <v>107.2287813301432</v>
+        <v>366.6490421109123</v>
       </c>
       <c r="R5">
-        <v>107.2287813301432</v>
+        <v>3299.841378998211</v>
       </c>
       <c r="S5">
-        <v>0.5765564238292044</v>
+        <v>0.601750278736647</v>
       </c>
       <c r="T5">
-        <v>0.5765564238292044</v>
+        <v>0.6017502787366471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H6">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I6">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J6">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18684891956238</v>
+        <v>2.253965666666666</v>
       </c>
       <c r="N6">
-        <v>2.18684891956238</v>
+        <v>6.761896999999999</v>
       </c>
       <c r="O6">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="P6">
-        <v>0.09817899374962366</v>
+        <v>0.03365734588711396</v>
       </c>
       <c r="Q6">
-        <v>12.6512935793116</v>
+        <v>13.13701574556567</v>
       </c>
       <c r="R6">
-        <v>12.6512935793116</v>
+        <v>118.233141710091</v>
       </c>
       <c r="S6">
-        <v>0.06802450323895261</v>
+        <v>0.02156068059294292</v>
       </c>
       <c r="T6">
-        <v>0.06802450323895261</v>
+        <v>0.02156068059294292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H7">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I7">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J7">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55214097370191</v>
+        <v>1.806737666666667</v>
       </c>
       <c r="N7">
-        <v>1.55214097370191</v>
+        <v>5.420213</v>
       </c>
       <c r="O7">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="P7">
-        <v>0.0696836610853344</v>
+        <v>0.02697911306883729</v>
       </c>
       <c r="Q7">
-        <v>8.979399975518653</v>
+        <v>10.53039162313767</v>
       </c>
       <c r="R7">
-        <v>8.979399975518653</v>
+        <v>94.77352460823901</v>
       </c>
       <c r="S7">
-        <v>0.04828116736753146</v>
+        <v>0.01728264734566601</v>
       </c>
       <c r="T7">
-        <v>0.04828116736753146</v>
+        <v>0.01728264734566601</v>
       </c>
     </row>
   </sheetData>
